--- a/Cadastro Clientes.xlsx
+++ b/Cadastro Clientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALNEIDE\Documents\Power BI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e775ab26b5c1cdcb/Hashtag/Aulas Power BI/Power BI Impressionador/Hashtag Eletro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA339D1-6FE8-47BB-BC75-765AD66125E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="11_48CE2EFA8B5D54A5B818DA002141AEF5BB09A357" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8498BC1C-9D5E-4D2C-9615-60A72D96AA37}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,26 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$3:$J$825</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4235" uniqueCount="2357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4231" uniqueCount="2354">
   <si>
     <t>Código Cliente</t>
   </si>
@@ -7099,15 +7090,6 @@
   </si>
   <si>
     <t>08444462209</t>
-  </si>
-  <si>
-    <t>Alon</t>
-  </si>
-  <si>
-    <t>Pinheiro</t>
-  </si>
-  <si>
-    <t>alon@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -7117,7 +7099,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7129,14 +7111,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7162,7 +7136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -7222,97 +7196,68 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7591,25 +7536,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J826"/>
+  <dimension ref="A1:J825"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B825" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H826" sqref="H826"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A819" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A823" sqref="A823"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -7617,7 +7562,11 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -7643,7 +7592,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -7669,7 +7618,7 @@
         <v>69059243005</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -7695,7 +7644,7 @@
         <v>17862233840</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <f t="shared" ref="A6:A27" si="0">A5+1</f>
         <v>3</v>
@@ -7722,7 +7671,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7749,7 +7698,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7776,7 +7725,7 @@
         <v>13234500339</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7803,7 +7752,7 @@
         <v>76287124105</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7830,7 +7779,7 @@
         <v>78818357298</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7857,7 +7806,7 @@
         <v>37516631183</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7884,7 +7833,7 @@
         <v>68875612200</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7911,7 +7860,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7938,7 +7887,7 @@
         <v>85886427198</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7965,7 +7914,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7992,7 +7941,7 @@
         <v>92263374973</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8019,7 +7968,7 @@
         <v>21228585326</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8046,7 +7995,7 @@
         <v>38136135690</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8073,7 +8022,7 @@
         <v>32265638153</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8100,7 +8049,7 @@
         <v>27627547202</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8127,7 +8076,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8154,7 +8103,7 @@
         <v>24387485086</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8181,7 +8130,7 @@
         <v>58761313181</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8208,7 +8157,7 @@
         <v>55853425250</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8235,7 +8184,7 @@
         <v>56919432781</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8262,7 +8211,7 @@
         <v>73850534405</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8289,7 +8238,7 @@
         <v>66552857047</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <f t="shared" ref="A28:A91" si="1">A27+1</f>
         <v>25</v>
@@ -8316,7 +8265,7 @@
         <v>78302714534</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -8343,7 +8292,7 @@
         <v>77715171883</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -8370,7 +8319,7 @@
         <v>15430186104</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -8397,7 +8346,7 @@
         <v>50667306641</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -8424,7 +8373,7 @@
         <v>87123603257</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -8451,7 +8400,7 @@
         <v>88188432571</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -8478,7 +8427,7 @@
         <v>20015050513</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -8505,7 +8454,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -8532,7 +8481,7 @@
         <v>25124033606</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -8559,7 +8508,7 @@
         <v>64026005399</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -8586,7 +8535,7 @@
         <v>72432346823</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -8613,7 +8562,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -8640,7 +8589,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -8667,7 +8616,7 @@
         <v>20467480699</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -8694,7 +8643,7 @@
         <v>24112351356</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -8721,7 +8670,7 @@
         <v>70527713732</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -8748,7 +8697,7 @@
         <v>37821645397</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -8775,7 +8724,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -8802,7 +8751,7 @@
         <v>71826756507</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -8829,7 +8778,7 @@
         <v>38802562415</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -8856,7 +8805,7 @@
         <v>36744270605</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -8883,7 +8832,7 @@
         <v>14002862399</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -8910,7 +8859,7 @@
         <v>26087657690</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -8937,7 +8886,7 @@
         <v>82834418845</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -8964,7 +8913,7 @@
         <v>15876356409</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -8991,7 +8940,7 @@
         <v>42674181010</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -9018,7 +8967,7 @@
         <v>37716108506</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -9045,7 +8994,7 @@
         <v>47220715510</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -9072,7 +9021,7 @@
         <v>14322611001</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -9099,7 +9048,7 @@
         <v>40443204705</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -9126,7 +9075,7 @@
         <v>83425257080</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -9153,7 +9102,7 @@
         <v>37681876324</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -9180,7 +9129,7 @@
         <v>76618463815</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -9207,7 +9156,7 @@
         <v>62121262679</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -9234,7 +9183,7 @@
         <v>77278046815</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -9261,7 +9210,7 @@
         <v>14352102040</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -9288,7 +9237,7 @@
         <v>38205218102</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -9315,7 +9264,7 @@
         <v>23381817868</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="8">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -9342,7 +9291,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -9369,7 +9318,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="8">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -9396,7 +9345,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -9423,7 +9372,7 @@
         <v>36304332513</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="8">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -9450,7 +9399,7 @@
         <v>13163771645</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -9477,7 +9426,7 @@
         <v>40457350202</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="8">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -9504,7 +9453,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -9531,7 +9480,7 @@
         <v>78027334489</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -9558,7 +9507,7 @@
         <v>80343188090</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -9585,7 +9534,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -9612,7 +9561,7 @@
         <v>21106706579</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -9639,7 +9588,7 @@
         <v>11137872284</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -9666,7 +9615,7 @@
         <v>88268558890</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -9693,7 +9642,7 @@
         <v>58520417183</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -9720,7 +9669,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -9747,7 +9696,7 @@
         <v>47664562384</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="8">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -9774,7 +9723,7 @@
         <v>25281041037</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -9801,7 +9750,7 @@
         <v>83581254107</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="8">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -9828,7 +9777,7 @@
         <v>30164618112</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -9855,7 +9804,7 @@
         <v>74184614612</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="8">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -9882,7 +9831,7 @@
         <v>16784853067</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -9909,7 +9858,7 @@
         <v>78560354557</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -9936,7 +9885,7 @@
         <v>26422611234</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -9963,7 +9912,7 @@
         <v>80450118584</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="8">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -9990,7 +9939,7 @@
         <v>14681347361</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -10017,7 +9966,7 @@
         <v>19347261920</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="8">
         <f t="shared" ref="A92:A155" si="2">A91+1</f>
         <v>89</v>
@@ -10044,7 +9993,7 @@
         <v>16213058052</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -10071,7 +10020,7 @@
         <v>77018286131</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="8">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -10098,7 +10047,7 @@
         <v>28745016208</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -10125,7 +10074,7 @@
         <v>60459808087</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="8">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -10152,7 +10101,7 @@
         <v>11426005059</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -10179,7 +10128,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="8">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -10206,7 +10155,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -10233,7 +10182,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="8">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -10260,7 +10209,7 @@
         <v>87768118405</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -10287,7 +10236,7 @@
         <v>46046616182</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="8">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -10314,7 +10263,7 @@
         <v>63883537381</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -10341,7 +10290,7 @@
         <v>85082766481</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="8">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -10368,7 +10317,7 @@
         <v>57171773213</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -10395,7 +10344,7 @@
         <v>42058127447</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="8">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -10422,7 +10371,7 @@
         <v>16370809560</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -10449,7 +10398,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="8">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -10476,7 +10425,7 @@
         <v>21545852480</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -10503,7 +10452,7 @@
         <v>88133056802</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="8">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -10530,7 +10479,7 @@
         <v>80617115753</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -10557,7 +10506,7 @@
         <v>36528771103</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="8">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -10584,7 +10533,7 @@
         <v>47104785116</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -10611,7 +10560,7 @@
         <v>82568311894</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="8">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -10638,7 +10587,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -10665,7 +10614,7 @@
         <v>70884472825</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="8">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -10692,7 +10641,7 @@
         <v>51348583495</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -10719,7 +10668,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="8">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -10746,7 +10695,7 @@
         <v>43642299547</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -10773,7 +10722,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="8">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -10800,7 +10749,7 @@
         <v>79952105827</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -10827,7 +10776,7 @@
         <v>86216452541</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="8">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -10854,7 +10803,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -10881,7 +10830,7 @@
         <v>48010575275</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="8">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -10908,7 +10857,7 @@
         <v>72580018590</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -10935,7 +10884,7 @@
         <v>65705503814</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="8">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -10962,7 +10911,7 @@
         <v>90260233595</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -10989,7 +10938,7 @@
         <v>71276236000</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="8">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -11016,7 +10965,7 @@
         <v>47072352635</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -11043,7 +10992,7 @@
         <v>81862753040</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="8">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -11070,7 +11019,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -11097,7 +11046,7 @@
         <v>77472350540</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="8">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -11124,7 +11073,7 @@
         <v>84663550576</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -11151,7 +11100,7 @@
         <v>14004110092</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="8">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -11178,7 +11127,7 @@
         <v>24412238369</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -11205,7 +11154,7 @@
         <v>64114558721</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="8">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -11232,7 +11181,7 @@
         <v>12561741303</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -11259,7 +11208,7 @@
         <v>53133554816</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="8">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -11286,7 +11235,7 @@
         <v>11217697802</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -11313,7 +11262,7 @@
         <v>57118166324</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="8">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -11340,7 +11289,7 @@
         <v>51465576088</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -11367,7 +11316,7 @@
         <v>13270857128</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="8">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -11394,7 +11343,7 @@
         <v>96759800010</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -11421,7 +11370,7 @@
         <v>78314348600</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="8">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -11448,7 +11397,7 @@
         <v>11065869800</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -11475,7 +11424,7 @@
         <v>57242060214</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="8">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -11502,7 +11451,7 @@
         <v>66434374585</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -11529,7 +11478,7 @@
         <v>88456683043</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="8">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -11556,7 +11505,7 @@
         <v>20263178102</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -11583,7 +11532,7 @@
         <v>55850503897</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="8">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -11610,7 +11559,7 @@
         <v>18167781259</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -11637,7 +11586,7 @@
         <v>58541365700</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="8">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -11664,7 +11613,7 @@
         <v>53456743700</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -11691,7 +11640,7 @@
         <v>83873660482</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="8">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -11718,7 +11667,7 @@
         <v>40463337409</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -11745,7 +11694,7 @@
         <v>43706042657</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="8">
         <f t="shared" ref="A156:A219" si="3">A155+1</f>
         <v>153</v>
@@ -11772,7 +11721,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <f t="shared" si="3"/>
         <v>154</v>
@@ -11799,7 +11748,7 @@
         <v>28343367502</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="8">
         <f t="shared" si="3"/>
         <v>155</v>
@@ -11826,7 +11775,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <f t="shared" si="3"/>
         <v>156</v>
@@ -11853,7 +11802,7 @@
         <v>15255762245</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="8">
         <f t="shared" si="3"/>
         <v>157</v>
@@ -11880,7 +11829,7 @@
         <v>65205130245</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <f t="shared" si="3"/>
         <v>158</v>
@@ -11907,7 +11856,7 @@
         <v>57885708241</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="8">
         <f t="shared" si="3"/>
         <v>159</v>
@@ -11934,7 +11883,7 @@
         <v>37536152426</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <f t="shared" si="3"/>
         <v>160</v>
@@ -11961,7 +11910,7 @@
         <v>28643073598</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="8">
         <f t="shared" si="3"/>
         <v>161</v>
@@ -11988,7 +11937,7 @@
         <v>65671267790</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <f t="shared" si="3"/>
         <v>162</v>
@@ -12015,7 +11964,7 @@
         <v>47478212603</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="8">
         <f t="shared" si="3"/>
         <v>163</v>
@@ -12042,7 +11991,7 @@
         <v>99235430135</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <f t="shared" si="3"/>
         <v>164</v>
@@ -12069,7 +12018,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="8">
         <f t="shared" si="3"/>
         <v>165</v>
@@ -12096,7 +12045,7 @@
         <v>11465321217</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <f t="shared" si="3"/>
         <v>166</v>
@@ -12123,7 +12072,7 @@
         <v>20300703430</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="8">
         <f t="shared" si="3"/>
         <v>167</v>
@@ -12150,7 +12099,7 @@
         <v>61771585285</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <f t="shared" si="3"/>
         <v>168</v>
@@ -12177,7 +12126,7 @@
         <v>64645563807</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="8">
         <f t="shared" si="3"/>
         <v>169</v>
@@ -12204,7 +12153,7 @@
         <v>73183821010</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <f t="shared" si="3"/>
         <v>170</v>
@@ -12231,7 +12180,7 @@
         <v>71126272140</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="8">
         <f t="shared" si="3"/>
         <v>171</v>
@@ -12258,7 +12207,7 @@
         <v>31558001433</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <f t="shared" si="3"/>
         <v>172</v>
@@ -12285,7 +12234,7 @@
         <v>57534843286</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="8">
         <f t="shared" si="3"/>
         <v>173</v>
@@ -12312,7 +12261,7 @@
         <v>15411303753</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <f t="shared" si="3"/>
         <v>174</v>
@@ -12339,7 +12288,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="8">
         <f t="shared" si="3"/>
         <v>175</v>
@@ -12366,7 +12315,7 @@
         <v>30753416816</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <f t="shared" si="3"/>
         <v>176</v>
@@ -12393,7 +12342,7 @@
         <v>78081510419</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="8">
         <f t="shared" si="3"/>
         <v>177</v>
@@ -12420,7 +12369,7 @@
         <v>48718826245</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <f t="shared" si="3"/>
         <v>178</v>
@@ -12447,7 +12396,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="8">
         <f t="shared" si="3"/>
         <v>179</v>
@@ -12474,7 +12423,7 @@
         <v>57845524492</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <f t="shared" si="3"/>
         <v>180</v>
@@ -12501,7 +12450,7 @@
         <v>55308277800</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="8">
         <f t="shared" si="3"/>
         <v>181</v>
@@ -12528,7 +12477,7 @@
         <v>77407405603</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <f t="shared" si="3"/>
         <v>182</v>
@@ -12555,7 +12504,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="8">
         <f t="shared" si="3"/>
         <v>183</v>
@@ -12582,7 +12531,7 @@
         <v>21777187753</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <f t="shared" si="3"/>
         <v>184</v>
@@ -12609,7 +12558,7 @@
         <v>16572320260</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="8">
         <f t="shared" si="3"/>
         <v>185</v>
@@ -12636,7 +12585,7 @@
         <v>51708538070</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <f t="shared" si="3"/>
         <v>186</v>
@@ -12663,7 +12612,7 @@
         <v>27871736590</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="8">
         <f t="shared" si="3"/>
         <v>187</v>
@@ -12690,7 +12639,7 @@
         <v>45234662624</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <f t="shared" si="3"/>
         <v>188</v>
@@ -12717,7 +12666,7 @@
         <v>13636586386</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="8">
         <f t="shared" si="3"/>
         <v>189</v>
@@ -12744,7 +12693,7 @@
         <v>31231126086</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <f t="shared" si="3"/>
         <v>190</v>
@@ -12771,7 +12720,7 @@
         <v>70425046400</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="8">
         <f t="shared" si="3"/>
         <v>191</v>
@@ -12798,7 +12747,7 @@
         <v>83454505208</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <f t="shared" si="3"/>
         <v>192</v>
@@ -12825,7 +12774,7 @@
         <v>43056870038</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="8">
         <f t="shared" si="3"/>
         <v>193</v>
@@ -12852,7 +12801,7 @@
         <v>60747780196</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <f t="shared" si="3"/>
         <v>194</v>
@@ -12879,7 +12828,7 @@
         <v>82511044242</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="8">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -12906,7 +12855,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -12933,7 +12882,7 @@
         <v>51256211702</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="8">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -12960,7 +12909,7 @@
         <v>71867830159</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -12987,7 +12936,7 @@
         <v>14532871670</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="8">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -13014,7 +12963,7 @@
         <v>50703000403</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -13041,7 +12990,7 @@
         <v>28584472339</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="8">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -13068,7 +13017,7 @@
         <v>45154305302</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -13095,7 +13044,7 @@
         <v>84540308750</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="8">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -13122,7 +13071,7 @@
         <v>33415115631</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -13149,7 +13098,7 @@
         <v>34185088043</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="8">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -13176,7 +13125,7 @@
         <v>44028401550</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -13203,7 +13152,7 @@
         <v>47121370883</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="8">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -13230,7 +13179,7 @@
         <v>88432622206</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -13257,7 +13206,7 @@
         <v>31013225104</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" s="8">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -13284,7 +13233,7 @@
         <v>44376100080</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -13311,7 +13260,7 @@
         <v>37004625060</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="8">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -13338,7 +13287,7 @@
         <v>88082861347</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -13365,7 +13314,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" s="8">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -13392,7 +13341,7 @@
         <v>14885465842</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -13419,7 +13368,7 @@
         <v>45222120112</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" s="8">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -13446,7 +13395,7 @@
         <v>86324404382</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -13473,7 +13422,7 @@
         <v>14804363050</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" s="8">
         <f t="shared" ref="A220:A283" si="4">A219+1</f>
         <v>217</v>
@@ -13500,7 +13449,7 @@
         <v>18371713002</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <f t="shared" si="4"/>
         <v>218</v>
@@ -13527,7 +13476,7 @@
         <v>23042555070</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" s="8">
         <f t="shared" si="4"/>
         <v>219</v>
@@ -13554,7 +13503,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <f t="shared" si="4"/>
         <v>220</v>
@@ -13581,7 +13530,7 @@
         <v>20502240369</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="8">
         <f t="shared" si="4"/>
         <v>221</v>
@@ -13608,7 +13557,7 @@
         <v>21602084343</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <f t="shared" si="4"/>
         <v>222</v>
@@ -13635,7 +13584,7 @@
         <v>47647000420</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" s="8">
         <f t="shared" si="4"/>
         <v>223</v>
@@ -13662,7 +13611,7 @@
         <v>78702852853</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <f t="shared" si="4"/>
         <v>224</v>
@@ -13689,7 +13638,7 @@
         <v>84804875859</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="8">
         <f t="shared" si="4"/>
         <v>225</v>
@@ -13716,7 +13665,7 @@
         <v>54388151602</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <f t="shared" si="4"/>
         <v>226</v>
@@ -13743,7 +13692,7 @@
         <v>51586466437</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="8">
         <f t="shared" si="4"/>
         <v>227</v>
@@ -13770,7 +13719,7 @@
         <v>31727207564</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <f t="shared" si="4"/>
         <v>228</v>
@@ -13797,7 +13746,7 @@
         <v>65152368080</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="8">
         <f t="shared" si="4"/>
         <v>229</v>
@@ -13824,7 +13773,7 @@
         <v>53106155710</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <f t="shared" si="4"/>
         <v>230</v>
@@ -13851,7 +13800,7 @@
         <v>11354415299</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="8">
         <f t="shared" si="4"/>
         <v>231</v>
@@ -13878,7 +13827,7 @@
         <v>23770463471</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <f t="shared" si="4"/>
         <v>232</v>
@@ -13905,7 +13854,7 @@
         <v>77173463203</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="8">
         <f t="shared" si="4"/>
         <v>233</v>
@@ -13932,7 +13881,7 @@
         <v>50548672016</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <f t="shared" si="4"/>
         <v>234</v>
@@ -13959,7 +13908,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" s="8">
         <f t="shared" si="4"/>
         <v>235</v>
@@ -13986,7 +13935,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <f t="shared" si="4"/>
         <v>236</v>
@@ -14013,7 +13962,7 @@
         <v>66063737430</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" s="8">
         <f t="shared" si="4"/>
         <v>237</v>
@@ -14040,7 +13989,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <f t="shared" si="4"/>
         <v>238</v>
@@ -14067,7 +14016,7 @@
         <v>78647300785</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" s="8">
         <f t="shared" si="4"/>
         <v>239</v>
@@ -14094,7 +14043,7 @@
         <v>54720436706</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <f t="shared" si="4"/>
         <v>240</v>
@@ -14121,7 +14070,7 @@
         <v>80348426569</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" s="8">
         <f t="shared" si="4"/>
         <v>241</v>
@@ -14148,7 +14097,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <f t="shared" si="4"/>
         <v>242</v>
@@ -14175,7 +14124,7 @@
         <v>20076358364</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" s="8">
         <f t="shared" si="4"/>
         <v>243</v>
@@ -14202,7 +14151,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <f t="shared" si="4"/>
         <v>244</v>
@@ -14229,7 +14178,7 @@
         <v>52482144833</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="8">
         <f t="shared" si="4"/>
         <v>245</v>
@@ -14256,7 +14205,7 @@
         <v>63863841301</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <f t="shared" si="4"/>
         <v>246</v>
@@ -14283,7 +14232,7 @@
         <v>76184171640</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="8">
         <f t="shared" si="4"/>
         <v>247</v>
@@ -14310,7 +14259,7 @@
         <v>42625844884</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
         <f t="shared" si="4"/>
         <v>248</v>
@@ -14337,7 +14286,7 @@
         <v>68353420724</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" s="8">
         <f t="shared" si="4"/>
         <v>249</v>
@@ -14364,7 +14313,7 @@
         <v>13858368652</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
         <f t="shared" si="4"/>
         <v>250</v>
@@ -14391,7 +14340,7 @@
         <v>54518578147</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="8">
         <f t="shared" si="4"/>
         <v>251</v>
@@ -14418,7 +14367,7 @@
         <v>71447161580</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
         <f t="shared" si="4"/>
         <v>252</v>
@@ -14445,7 +14394,7 @@
         <v>13303666628</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" s="8">
         <f t="shared" si="4"/>
         <v>253</v>
@@ -14472,7 +14421,7 @@
         <v>83336587255</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
         <f t="shared" si="4"/>
         <v>254</v>
@@ -14499,7 +14448,7 @@
         <v>56162284867</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" s="8">
         <f t="shared" si="4"/>
         <v>255</v>
@@ -14526,7 +14475,7 @@
         <v>11063201586</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <f t="shared" si="4"/>
         <v>256</v>
@@ -14553,7 +14502,7 @@
         <v>55202335784</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" s="8">
         <f t="shared" si="4"/>
         <v>257</v>
@@ -14580,7 +14529,7 @@
         <v>65488803157</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <f t="shared" si="4"/>
         <v>258</v>
@@ -14607,7 +14556,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" s="8">
         <f t="shared" si="4"/>
         <v>259</v>
@@ -14634,7 +14583,7 @@
         <v>78514814222</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -14661,7 +14610,7 @@
         <v>45502848701</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" s="8">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -14688,7 +14637,7 @@
         <v>36227564702</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -14715,7 +14664,7 @@
         <v>20867528818</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" s="8">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -14742,7 +14691,7 @@
         <v>10312751770</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -14769,7 +14718,7 @@
         <v>45717430094</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" s="8">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -14796,7 +14745,7 @@
         <v>66546311291</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -14823,7 +14772,7 @@
         <v>63853772706</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" s="8">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -14850,7 +14799,7 @@
         <v>57813384113</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -14877,7 +14826,7 @@
         <v>25122654123</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" s="8">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -14904,7 +14853,7 @@
         <v>57466241522</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -14931,7 +14880,7 @@
         <v>22185876023</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" s="8">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -14958,7 +14907,7 @@
         <v>84404006080</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -14985,7 +14934,7 @@
         <v>41458766870</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" s="8">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -15012,7 +14961,7 @@
         <v>21374363618</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -15039,7 +14988,7 @@
         <v>68148578044</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="8">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -15066,7 +15015,7 @@
         <v>56561487184</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -15093,7 +15042,7 @@
         <v>52744851116</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="8">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -15120,7 +15069,7 @@
         <v>67432247153</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -15147,7 +15096,7 @@
         <v>85061505662</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" s="8">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -15174,7 +15123,7 @@
         <v>45251513747</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -15201,7 +15150,7 @@
         <v>16823754710</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" s="8">
         <f t="shared" ref="A284:A347" si="5">A283+1</f>
         <v>281</v>
@@ -15228,7 +15177,7 @@
         <v>78567143101</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
         <f t="shared" si="5"/>
         <v>282</v>
@@ -15255,7 +15204,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" s="8">
         <f t="shared" si="5"/>
         <v>283</v>
@@ -15282,7 +15231,7 @@
         <v>34223883038</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
         <f t="shared" si="5"/>
         <v>284</v>
@@ -15309,7 +15258,7 @@
         <v>47260683775</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" s="8">
         <f t="shared" si="5"/>
         <v>285</v>
@@ -15336,7 +15285,7 @@
         <v>86106542228</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
         <f t="shared" si="5"/>
         <v>286</v>
@@ -15363,7 +15312,7 @@
         <v>53446856293</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" s="8">
         <f t="shared" si="5"/>
         <v>287</v>
@@ -15390,7 +15339,7 @@
         <v>74825458599</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
         <f t="shared" si="5"/>
         <v>288</v>
@@ -15417,7 +15366,7 @@
         <v>74541051575</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" s="8">
         <f t="shared" si="5"/>
         <v>289</v>
@@ -15444,7 +15393,7 @@
         <v>13716862460</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
         <f t="shared" si="5"/>
         <v>290</v>
@@ -15471,7 +15420,7 @@
         <v>35147588752</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" s="8">
         <f t="shared" si="5"/>
         <v>291</v>
@@ -15498,7 +15447,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
         <f t="shared" si="5"/>
         <v>292</v>
@@ -15525,7 +15474,7 @@
         <v>80448811588</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" s="8">
         <f t="shared" si="5"/>
         <v>293</v>
@@ -15552,7 +15501,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
         <f t="shared" si="5"/>
         <v>294</v>
@@ -15579,7 +15528,7 @@
         <v>77236541540</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" s="8">
         <f t="shared" si="5"/>
         <v>295</v>
@@ -15606,7 +15555,7 @@
         <v>60610654420</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
         <f t="shared" si="5"/>
         <v>296</v>
@@ -15633,7 +15582,7 @@
         <v>25364606309</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" s="8">
         <f t="shared" si="5"/>
         <v>297</v>
@@ -15660,7 +15609,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
         <f t="shared" si="5"/>
         <v>298</v>
@@ -15687,7 +15636,7 @@
         <v>21758720506</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" s="8">
         <f t="shared" si="5"/>
         <v>299</v>
@@ -15714,7 +15663,7 @@
         <v>91802614001</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
         <f t="shared" si="5"/>
         <v>300</v>
@@ -15741,7 +15690,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" s="8">
         <f t="shared" si="5"/>
         <v>301</v>
@@ -15768,7 +15717,7 @@
         <v>66426500267</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
         <f t="shared" si="5"/>
         <v>302</v>
@@ -15795,7 +15744,7 @@
         <v>60227617860</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" s="8">
         <f t="shared" si="5"/>
         <v>303</v>
@@ -15822,7 +15771,7 @@
         <v>34274325210</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
         <f t="shared" si="5"/>
         <v>304</v>
@@ -15849,7 +15798,7 @@
         <v>70237127202</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" s="8">
         <f t="shared" si="5"/>
         <v>305</v>
@@ -15876,7 +15825,7 @@
         <v>87170167891</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
         <f t="shared" si="5"/>
         <v>306</v>
@@ -15903,7 +15852,7 @@
         <v>86517135502</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" s="8">
         <f t="shared" si="5"/>
         <v>307</v>
@@ -15930,7 +15879,7 @@
         <v>57253277872</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
         <f t="shared" si="5"/>
         <v>308</v>
@@ -15957,7 +15906,7 @@
         <v>67476282175</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" s="8">
         <f t="shared" si="5"/>
         <v>309</v>
@@ -15984,7 +15933,7 @@
         <v>78866505498</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" s="3">
         <f t="shared" si="5"/>
         <v>310</v>
@@ -16011,7 +15960,7 @@
         <v>17773478740</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" s="8">
         <f t="shared" si="5"/>
         <v>311</v>
@@ -16038,7 +15987,7 @@
         <v>74360187521</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" s="3">
         <f t="shared" si="5"/>
         <v>312</v>
@@ -16065,7 +16014,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" s="8">
         <f t="shared" si="5"/>
         <v>313</v>
@@ -16092,7 +16041,7 @@
         <v>46466224325</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" s="3">
         <f t="shared" si="5"/>
         <v>314</v>
@@ -16119,7 +16068,7 @@
         <v>60057263230</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" s="8">
         <f t="shared" si="5"/>
         <v>315</v>
@@ -16146,7 +16095,7 @@
         <v>60720281288</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" s="3">
         <f t="shared" si="5"/>
         <v>316</v>
@@ -16173,7 +16122,7 @@
         <v>30814458173</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" s="8">
         <f t="shared" si="5"/>
         <v>317</v>
@@ -16200,7 +16149,7 @@
         <v>51388382881</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321" s="3">
         <f t="shared" si="5"/>
         <v>318</v>
@@ -16227,7 +16176,7 @@
         <v>26023114806</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322" s="8">
         <f t="shared" si="5"/>
         <v>319</v>
@@ -16254,7 +16203,7 @@
         <v>13144816140</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323" s="3">
         <f t="shared" si="5"/>
         <v>320</v>
@@ -16281,7 +16230,7 @@
         <v>30046855580</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324" s="8">
         <f t="shared" si="5"/>
         <v>321</v>
@@ -16308,7 +16257,7 @@
         <v>83563345600</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325" s="3">
         <f t="shared" si="5"/>
         <v>322</v>
@@ -16335,7 +16284,7 @@
         <v>54136348541</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326" s="8">
         <f t="shared" si="5"/>
         <v>323</v>
@@ -16362,7 +16311,7 @@
         <v>17022104565</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327" s="3">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -16389,7 +16338,7 @@
         <v>81837282358</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328" s="8">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -16416,7 +16365,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329" s="3">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -16443,7 +16392,7 @@
         <v>78527220407</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330" s="8">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -16470,7 +16419,7 @@
         <v>68067404305</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331" s="3">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -16497,7 +16446,7 @@
         <v>87618412693</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332" s="8">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -16524,7 +16473,7 @@
         <v>36113845699</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333" s="3">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -16551,7 +16500,7 @@
         <v>67780566145</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334" s="8">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -16578,7 +16527,7 @@
         <v>23041622319</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" s="3">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -16605,7 +16554,7 @@
         <v>41512233552</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336" s="8">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -16632,7 +16581,7 @@
         <v>28863743509</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" s="3">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -16659,7 +16608,7 @@
         <v>87207483376</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" s="8">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -16686,7 +16635,7 @@
         <v>53387440669</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" s="3">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -16713,7 +16662,7 @@
         <v>41881577805</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" s="8">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -16740,7 +16689,7 @@
         <v>31087707641</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" s="3">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -16767,7 +16716,7 @@
         <v>26750168884</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" s="8">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -16794,7 +16743,7 @@
         <v>13656745684</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" s="3">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -16821,7 +16770,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" s="8">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -16848,7 +16797,7 @@
         <v>60712385363</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" s="3">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -16875,7 +16824,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" s="8">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -16902,7 +16851,7 @@
         <v>22401638288</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" s="3">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -16929,7 +16878,7 @@
         <v>76471350317</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" s="8">
         <f t="shared" ref="A348:A411" si="6">A347+1</f>
         <v>345</v>
@@ -16956,7 +16905,7 @@
         <v>86036042078</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" s="3">
         <f t="shared" si="6"/>
         <v>346</v>
@@ -16983,7 +16932,7 @@
         <v>66566714626</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" s="8">
         <f t="shared" si="6"/>
         <v>347</v>
@@ -17010,7 +16959,7 @@
         <v>77503138009</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" s="3">
         <f t="shared" si="6"/>
         <v>348</v>
@@ -17037,7 +16986,7 @@
         <v>65102773364</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" s="8">
         <f t="shared" si="6"/>
         <v>349</v>
@@ -17064,7 +17013,7 @@
         <v>67543000601</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" s="3">
         <f t="shared" si="6"/>
         <v>350</v>
@@ -17091,7 +17040,7 @@
         <v>58237765273</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" s="8">
         <f t="shared" si="6"/>
         <v>351</v>
@@ -17118,7 +17067,7 @@
         <v>76181470786</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" s="3">
         <f t="shared" si="6"/>
         <v>352</v>
@@ -17145,7 +17094,7 @@
         <v>57162726143</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" s="8">
         <f t="shared" si="6"/>
         <v>353</v>
@@ -17172,7 +17121,7 @@
         <v>24871704335</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" s="3">
         <f t="shared" si="6"/>
         <v>354</v>
@@ -17199,7 +17148,7 @@
         <v>71777476640</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" s="8">
         <f t="shared" si="6"/>
         <v>355</v>
@@ -17226,7 +17175,7 @@
         <v>24607205303</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" s="3">
         <f t="shared" si="6"/>
         <v>356</v>
@@ -17253,7 +17202,7 @@
         <v>55746334421</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" s="8">
         <f t="shared" si="6"/>
         <v>357</v>
@@ -17280,7 +17229,7 @@
         <v>82810786500</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" s="3">
         <f t="shared" si="6"/>
         <v>358</v>
@@ -17307,7 +17256,7 @@
         <v>34076245148</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" s="8">
         <f t="shared" si="6"/>
         <v>359</v>
@@ -17334,7 +17283,7 @@
         <v>53488763218</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" s="3">
         <f t="shared" si="6"/>
         <v>360</v>
@@ -17361,7 +17310,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" s="8">
         <f t="shared" si="6"/>
         <v>361</v>
@@ -17388,7 +17337,7 @@
         <v>73235423834</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" s="3">
         <f t="shared" si="6"/>
         <v>362</v>
@@ -17415,7 +17364,7 @@
         <v>46230578441</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" s="8">
         <f t="shared" si="6"/>
         <v>363</v>
@@ -17442,7 +17391,7 @@
         <v>43562024495</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" s="3">
         <f t="shared" si="6"/>
         <v>364</v>
@@ -17469,7 +17418,7 @@
         <v>84622843412</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" s="8">
         <f t="shared" si="6"/>
         <v>365</v>
@@ -17496,7 +17445,7 @@
         <v>65561084054</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" s="3">
         <f t="shared" si="6"/>
         <v>366</v>
@@ -17523,7 +17472,7 @@
         <v>51875122346</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" s="8">
         <f t="shared" si="6"/>
         <v>367</v>
@@ -17550,7 +17499,7 @@
         <v>24542004066</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" s="3">
         <f t="shared" si="6"/>
         <v>368</v>
@@ -17577,7 +17526,7 @@
         <v>87214768615</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" s="8">
         <f t="shared" si="6"/>
         <v>369</v>
@@ -17604,7 +17553,7 @@
         <v>58252137679</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" s="3">
         <f t="shared" si="6"/>
         <v>370</v>
@@ -17631,7 +17580,7 @@
         <v>40653085001</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" s="8">
         <f t="shared" si="6"/>
         <v>371</v>
@@ -17658,7 +17607,7 @@
         <v>75454073342</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" s="3">
         <f t="shared" si="6"/>
         <v>372</v>
@@ -17685,7 +17634,7 @@
         <v>46027218347</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" s="8">
         <f t="shared" si="6"/>
         <v>373</v>
@@ -17712,7 +17661,7 @@
         <v>41783568879</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" s="3">
         <f t="shared" si="6"/>
         <v>374</v>
@@ -17739,7 +17688,7 @@
         <v>38466589015</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" s="8">
         <f t="shared" si="6"/>
         <v>375</v>
@@ -17766,7 +17715,7 @@
         <v>78583284687</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379" s="3">
         <f t="shared" si="6"/>
         <v>376</v>
@@ -17793,7 +17742,7 @@
         <v>88571631131</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380" s="8">
         <f t="shared" si="6"/>
         <v>377</v>
@@ -17820,7 +17769,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" s="3">
         <f t="shared" si="6"/>
         <v>378</v>
@@ -17847,7 +17796,7 @@
         <v>76502231594</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" s="8">
         <f t="shared" si="6"/>
         <v>379</v>
@@ -17874,7 +17823,7 @@
         <v>41710645890</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383" s="3">
         <f t="shared" si="6"/>
         <v>380</v>
@@ -17901,7 +17850,7 @@
         <v>20710166885</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384" s="8">
         <f t="shared" si="6"/>
         <v>381</v>
@@ -17928,7 +17877,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385" s="3">
         <f t="shared" si="6"/>
         <v>382</v>
@@ -17955,7 +17904,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386" s="8">
         <f t="shared" si="6"/>
         <v>383</v>
@@ -17982,7 +17931,7 @@
         <v>63153112886</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387" s="3">
         <f t="shared" si="6"/>
         <v>384</v>
@@ -18009,7 +17958,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388" s="8">
         <f t="shared" si="6"/>
         <v>385</v>
@@ -18036,7 +17985,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389" s="3">
         <f t="shared" si="6"/>
         <v>386</v>
@@ -18063,7 +18012,7 @@
         <v>25262476597</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390" s="8">
         <f t="shared" si="6"/>
         <v>387</v>
@@ -18090,7 +18039,7 @@
         <v>65856603400</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391" s="3">
         <f t="shared" si="6"/>
         <v>388</v>
@@ -18117,7 +18066,7 @@
         <v>80420556508</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392" s="8">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -18144,7 +18093,7 @@
         <v>28861286437</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393" s="3">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -18171,7 +18120,7 @@
         <v>14170543289</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394" s="8">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -18198,7 +18147,7 @@
         <v>81511551321</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" s="3">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -18225,7 +18174,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396" s="8">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -18252,7 +18201,7 @@
         <v>28368666678</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" s="3">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -18279,7 +18228,7 @@
         <v>28747078804</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" s="8">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -18306,7 +18255,7 @@
         <v>22732223514</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399" s="3">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -18333,7 +18282,7 @@
         <v>75727543410</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400" s="8">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -18360,7 +18309,7 @@
         <v>17850712382</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" s="3">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -18387,7 +18336,7 @@
         <v>17200474568</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" s="8">
         <f t="shared" si="6"/>
         <v>399</v>
@@ -18414,7 +18363,7 @@
         <v>84840312842</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" s="3">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -18441,7 +18390,7 @@
         <v>46085758561</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" s="8">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -18468,7 +18417,7 @@
         <v>11540441490</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" s="3">
         <f t="shared" si="6"/>
         <v>402</v>
@@ -18495,7 +18444,7 @@
         <v>66625808806</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" s="8">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -18522,7 +18471,7 @@
         <v>32024387357</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" s="3">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -18549,7 +18498,7 @@
         <v>63201161888</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" s="8">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -18576,7 +18525,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" s="3">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -18603,7 +18552,7 @@
         <v>99868724210</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" s="8">
         <f t="shared" si="6"/>
         <v>407</v>
@@ -18630,7 +18579,7 @@
         <v>16543652705</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" s="3">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -18657,7 +18606,7 @@
         <v>68630345578</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" s="8">
         <f t="shared" ref="A412:A475" si="7">A411+1</f>
         <v>409</v>
@@ -18684,7 +18633,7 @@
         <v>31171601247</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" s="3">
         <f t="shared" si="7"/>
         <v>410</v>
@@ -18711,7 +18660,7 @@
         <v>48020673130</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" s="8">
         <f t="shared" si="7"/>
         <v>411</v>
@@ -18738,7 +18687,7 @@
         <v>48315078739</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" s="3">
         <f t="shared" si="7"/>
         <v>412</v>
@@ -18765,7 +18714,7 @@
         <v>21355263395</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" s="8">
         <f t="shared" si="7"/>
         <v>413</v>
@@ -18792,7 +18741,7 @@
         <v>21245146017</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417" s="3">
         <f t="shared" si="7"/>
         <v>414</v>
@@ -18819,7 +18768,7 @@
         <v>82305216548</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418" s="8">
         <f t="shared" si="7"/>
         <v>415</v>
@@ -18846,7 +18795,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419" s="3">
         <f t="shared" si="7"/>
         <v>416</v>
@@ -18873,7 +18822,7 @@
         <v>45085187539</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420" s="8">
         <f t="shared" si="7"/>
         <v>417</v>
@@ -18900,7 +18849,7 @@
         <v>80088207722</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421" s="3">
         <f t="shared" si="7"/>
         <v>418</v>
@@ -18927,7 +18876,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422" s="8">
         <f t="shared" si="7"/>
         <v>419</v>
@@ -18954,7 +18903,7 @@
         <v>37810216708</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423" s="3">
         <f t="shared" si="7"/>
         <v>420</v>
@@ -18981,7 +18930,7 @@
         <v>36565562296</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424" s="8">
         <f t="shared" si="7"/>
         <v>421</v>
@@ -19008,7 +18957,7 @@
         <v>82050775415</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425" s="3">
         <f t="shared" si="7"/>
         <v>422</v>
@@ -19035,7 +18984,7 @@
         <v>13024585664</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426" s="8">
         <f t="shared" si="7"/>
         <v>423</v>
@@ -19062,7 +19011,7 @@
         <v>17368025345</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427" s="3">
         <f t="shared" si="7"/>
         <v>424</v>
@@ -19089,7 +19038,7 @@
         <v>52558564528</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428" s="8">
         <f t="shared" si="7"/>
         <v>425</v>
@@ -19116,7 +19065,7 @@
         <v>21862252556</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429" s="3">
         <f t="shared" si="7"/>
         <v>426</v>
@@ -19143,7 +19092,7 @@
         <v>18870426360</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430" s="8">
         <f t="shared" si="7"/>
         <v>427</v>
@@ -19170,7 +19119,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431" s="3">
         <f t="shared" si="7"/>
         <v>428</v>
@@ -19197,7 +19146,7 @@
         <v>23855750866</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432" s="8">
         <f t="shared" si="7"/>
         <v>429</v>
@@ -19224,7 +19173,7 @@
         <v>55817883830</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433" s="3">
         <f t="shared" si="7"/>
         <v>430</v>
@@ -19251,7 +19200,7 @@
         <v>33454106214</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434" s="8">
         <f t="shared" si="7"/>
         <v>431</v>
@@ -19278,7 +19227,7 @@
         <v>72822088322</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435" s="3">
         <f t="shared" si="7"/>
         <v>432</v>
@@ -19305,7 +19254,7 @@
         <v>74340030570</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436" s="8">
         <f t="shared" si="7"/>
         <v>433</v>
@@ -19332,7 +19281,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437" s="3">
         <f t="shared" si="7"/>
         <v>434</v>
@@ -19359,7 +19308,7 @@
         <v>14230202512</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438" s="8">
         <f t="shared" si="7"/>
         <v>435</v>
@@ -19386,7 +19335,7 @@
         <v>71216651400</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439" s="3">
         <f t="shared" si="7"/>
         <v>436</v>
@@ -19413,7 +19362,7 @@
         <v>53283871710</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440" s="8">
         <f t="shared" si="7"/>
         <v>437</v>
@@ -19440,7 +19389,7 @@
         <v>11163384321</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441" s="3">
         <f t="shared" si="7"/>
         <v>438</v>
@@ -19467,7 +19416,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442" s="8">
         <f t="shared" si="7"/>
         <v>439</v>
@@ -19494,7 +19443,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443" s="3">
         <f t="shared" si="7"/>
         <v>440</v>
@@ -19521,7 +19470,7 @@
         <v>26808005320</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444" s="8">
         <f t="shared" si="7"/>
         <v>441</v>
@@ -19548,7 +19497,7 @@
         <v>33673036157</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445" s="3">
         <f t="shared" si="7"/>
         <v>442</v>
@@ -19575,7 +19524,7 @@
         <v>80200842820</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446" s="8">
         <f t="shared" si="7"/>
         <v>443</v>
@@ -19602,7 +19551,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447" s="3">
         <f t="shared" si="7"/>
         <v>444</v>
@@ -19629,7 +19578,7 @@
         <v>46051328483</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448" s="8">
         <f t="shared" si="7"/>
         <v>445</v>
@@ -19656,7 +19605,7 @@
         <v>20827847629</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449" s="3">
         <f t="shared" si="7"/>
         <v>446</v>
@@ -19683,7 +19632,7 @@
         <v>40717304043</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450" s="8">
         <f t="shared" si="7"/>
         <v>447</v>
@@ -19710,7 +19659,7 @@
         <v>58701276379</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451" s="3">
         <f t="shared" si="7"/>
         <v>448</v>
@@ -19737,7 +19686,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452" s="8">
         <f t="shared" si="7"/>
         <v>449</v>
@@ -19764,7 +19713,7 @@
         <v>13265246744</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453" s="3">
         <f t="shared" si="7"/>
         <v>450</v>
@@ -19791,7 +19740,7 @@
         <v>56040800712</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454" s="8">
         <f t="shared" si="7"/>
         <v>451</v>
@@ -19818,7 +19767,7 @@
         <v>26566341137</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455" s="3">
         <f t="shared" si="7"/>
         <v>452</v>
@@ -19845,7 +19794,7 @@
         <v>33075302830</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456" s="8">
         <f t="shared" si="7"/>
         <v>453</v>
@@ -19872,7 +19821,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457" s="3">
         <f t="shared" si="7"/>
         <v>454</v>
@@ -19899,7 +19848,7 @@
         <v>52025670303</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458" s="8">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -19926,7 +19875,7 @@
         <v>84276674000</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459" s="3">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -19953,7 +19902,7 @@
         <v>83271427208</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460" s="8">
         <f t="shared" si="7"/>
         <v>457</v>
@@ -19980,7 +19929,7 @@
         <v>14307300645</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461" s="3">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -20007,7 +19956,7 @@
         <v>45654081470</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462" s="8">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -20034,7 +19983,7 @@
         <v>58658054284</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463" s="3">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -20061,7 +20010,7 @@
         <v>74075414264</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464" s="8">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -20088,7 +20037,7 @@
         <v>32107653089</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" s="3">
         <f t="shared" si="7"/>
         <v>462</v>
@@ -20115,7 +20064,7 @@
         <v>52175048624</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" s="8">
         <f t="shared" si="7"/>
         <v>463</v>
@@ -20142,7 +20091,7 @@
         <v>54050438852</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" s="3">
         <f t="shared" si="7"/>
         <v>464</v>
@@ -20169,7 +20118,7 @@
         <v>50353562130</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468" s="8">
         <f t="shared" si="7"/>
         <v>465</v>
@@ -20196,7 +20145,7 @@
         <v>47541558230</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469" s="3">
         <f t="shared" si="7"/>
         <v>466</v>
@@ -20223,7 +20172,7 @@
         <v>33186482488</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470" s="8">
         <f t="shared" si="7"/>
         <v>467</v>
@@ -20250,7 +20199,7 @@
         <v>33108235397</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471" s="3">
         <f t="shared" si="7"/>
         <v>468</v>
@@ -20277,7 +20226,7 @@
         <v>72384126245</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472" s="8">
         <f t="shared" si="7"/>
         <v>469</v>
@@ -20304,7 +20253,7 @@
         <v>80184571073</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473" s="3">
         <f t="shared" si="7"/>
         <v>470</v>
@@ -20331,7 +20280,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474" s="8">
         <f t="shared" si="7"/>
         <v>471</v>
@@ -20358,7 +20307,7 @@
         <v>43088026364</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" s="3">
         <f t="shared" si="7"/>
         <v>472</v>
@@ -20385,7 +20334,7 @@
         <v>28045144394</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" s="8">
         <f t="shared" ref="A476:A539" si="8">A475+1</f>
         <v>473</v>
@@ -20412,7 +20361,7 @@
         <v>71471214141</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" s="3">
         <f t="shared" si="8"/>
         <v>474</v>
@@ -20439,7 +20388,7 @@
         <v>43755292530</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478" s="8">
         <f t="shared" si="8"/>
         <v>475</v>
@@ -20466,7 +20415,7 @@
         <v>60802886485</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479" s="3">
         <f t="shared" si="8"/>
         <v>476</v>
@@ -20493,7 +20442,7 @@
         <v>71716635586</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480" s="8">
         <f t="shared" si="8"/>
         <v>477</v>
@@ -20520,7 +20469,7 @@
         <v>54861680808</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481" s="3">
         <f t="shared" si="8"/>
         <v>478</v>
@@ -20547,7 +20496,7 @@
         <v>26844842104</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482" s="8">
         <f t="shared" si="8"/>
         <v>479</v>
@@ -20574,7 +20523,7 @@
         <v>31558517243</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483" s="3">
         <f t="shared" si="8"/>
         <v>480</v>
@@ -20601,7 +20550,7 @@
         <v>51724310208</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484" s="8">
         <f t="shared" si="8"/>
         <v>481</v>
@@ -20628,7 +20577,7 @@
         <v>78161733007</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485" s="3">
         <f t="shared" si="8"/>
         <v>482</v>
@@ -20655,7 +20604,7 @@
         <v>27318253085</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486" s="8">
         <f t="shared" si="8"/>
         <v>483</v>
@@ -20682,7 +20631,7 @@
         <v>84511571066</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487" s="3">
         <f t="shared" si="8"/>
         <v>484</v>
@@ -20709,7 +20658,7 @@
         <v>82087604550</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488" s="8">
         <f t="shared" si="8"/>
         <v>485</v>
@@ -20736,7 +20685,7 @@
         <v>66066778587</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A489" s="3">
         <f t="shared" si="8"/>
         <v>486</v>
@@ -20763,7 +20712,7 @@
         <v>82861300221</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A490" s="8">
         <f t="shared" si="8"/>
         <v>487</v>
@@ -20790,7 +20739,7 @@
         <v>57144324101</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A491" s="3">
         <f t="shared" si="8"/>
         <v>488</v>
@@ -20817,7 +20766,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A492" s="8">
         <f t="shared" si="8"/>
         <v>489</v>
@@ -20844,7 +20793,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A493" s="3">
         <f t="shared" si="8"/>
         <v>490</v>
@@ -20871,7 +20820,7 @@
         <v>56660274766</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A494" s="8">
         <f t="shared" si="8"/>
         <v>491</v>
@@ -20898,7 +20847,7 @@
         <v>27017431251</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A495" s="3">
         <f t="shared" si="8"/>
         <v>492</v>
@@ -20925,7 +20874,7 @@
         <v>23883816817</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A496" s="8">
         <f t="shared" si="8"/>
         <v>493</v>
@@ -20952,7 +20901,7 @@
         <v>61204641749</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497" s="3">
         <f t="shared" si="8"/>
         <v>494</v>
@@ -20979,7 +20928,7 @@
         <v>77237738380</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A498" s="8">
         <f t="shared" si="8"/>
         <v>495</v>
@@ -21006,7 +20955,7 @@
         <v>53375644710</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A499" s="3">
         <f t="shared" si="8"/>
         <v>496</v>
@@ -21033,7 +20982,7 @@
         <v>24481311550</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500" s="8">
         <f t="shared" si="8"/>
         <v>497</v>
@@ -21060,7 +21009,7 @@
         <v>64540343130</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501" s="3">
         <f t="shared" si="8"/>
         <v>498</v>
@@ -21087,7 +21036,7 @@
         <v>14747874526</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A502" s="8">
         <f t="shared" si="8"/>
         <v>499</v>
@@ -21114,7 +21063,7 @@
         <v>48708047197</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A503" s="3">
         <f t="shared" si="8"/>
         <v>500</v>
@@ -21141,7 +21090,7 @@
         <v>57124576520</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A504" s="8">
         <f t="shared" si="8"/>
         <v>501</v>
@@ -21168,7 +21117,7 @@
         <v>18600875668</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A505" s="3">
         <f t="shared" si="8"/>
         <v>502</v>
@@ -21195,7 +21144,7 @@
         <v>50142479624</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A506" s="8">
         <f t="shared" si="8"/>
         <v>503</v>
@@ -21222,7 +21171,7 @@
         <v>32478037858</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A507" s="3">
         <f t="shared" si="8"/>
         <v>504</v>
@@ -21249,7 +21198,7 @@
         <v>31236272846</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A508" s="8">
         <f t="shared" si="8"/>
         <v>505</v>
@@ -21276,7 +21225,7 @@
         <v>11707000719</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A509" s="3">
         <f t="shared" si="8"/>
         <v>506</v>
@@ -21303,7 +21252,7 @@
         <v>66270525470</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A510" s="8">
         <f t="shared" si="8"/>
         <v>507</v>
@@ -21330,7 +21279,7 @@
         <v>47774769870</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A511" s="3">
         <f t="shared" si="8"/>
         <v>508</v>
@@ -21357,7 +21306,7 @@
         <v>10118066650</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A512" s="8">
         <f t="shared" si="8"/>
         <v>509</v>
@@ -21384,7 +21333,7 @@
         <v>67644151885</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513" s="3">
         <f t="shared" si="8"/>
         <v>510</v>
@@ -21411,7 +21360,7 @@
         <v>11332058876</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514" s="8">
         <f t="shared" si="8"/>
         <v>511</v>
@@ -21438,7 +21387,7 @@
         <v>78747548401</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515" s="3">
         <f t="shared" si="8"/>
         <v>512</v>
@@ -21465,7 +21414,7 @@
         <v>45211063236</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516" s="8">
         <f t="shared" si="8"/>
         <v>513</v>
@@ -21492,7 +21441,7 @@
         <v>78177311360</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517" s="3">
         <f t="shared" si="8"/>
         <v>514</v>
@@ -21519,7 +21468,7 @@
         <v>85051846530</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518" s="8">
         <f t="shared" si="8"/>
         <v>515</v>
@@ -21546,7 +21495,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519" s="3">
         <f t="shared" si="8"/>
         <v>516</v>
@@ -21573,7 +21522,7 @@
         <v>37335151880</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520" s="8">
         <f t="shared" si="8"/>
         <v>517</v>
@@ -21600,7 +21549,7 @@
         <v>80820205397</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521" s="3">
         <f t="shared" si="8"/>
         <v>518</v>
@@ -21627,7 +21576,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522" s="8">
         <f t="shared" si="8"/>
         <v>519</v>
@@ -21654,7 +21603,7 @@
         <v>45026740103</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523" s="3">
         <f t="shared" si="8"/>
         <v>520</v>
@@ -21681,7 +21630,7 @@
         <v>55122182809</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524" s="8">
         <f t="shared" si="8"/>
         <v>521</v>
@@ -21708,7 +21657,7 @@
         <v>13331184730</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525" s="3">
         <f t="shared" si="8"/>
         <v>522</v>
@@ -21735,7 +21684,7 @@
         <v>60535137761</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526" s="8">
         <f t="shared" si="8"/>
         <v>523</v>
@@ -21762,7 +21711,7 @@
         <v>12605018334</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527" s="3">
         <f t="shared" si="8"/>
         <v>524</v>
@@ -21789,7 +21738,7 @@
         <v>35307638531</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528" s="8">
         <f t="shared" si="8"/>
         <v>525</v>
@@ -21816,7 +21765,7 @@
         <v>37782855217</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A529" s="3">
         <f t="shared" si="8"/>
         <v>526</v>
@@ -21843,7 +21792,7 @@
         <v>48017176406</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A530" s="8">
         <f t="shared" si="8"/>
         <v>527</v>
@@ -21870,7 +21819,7 @@
         <v>77118730343</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A531" s="3">
         <f t="shared" si="8"/>
         <v>528</v>
@@ -21897,7 +21846,7 @@
         <v>71242022309</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A532" s="8">
         <f t="shared" si="8"/>
         <v>529</v>
@@ -21924,7 +21873,7 @@
         <v>85810601294</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A533" s="3">
         <f t="shared" si="8"/>
         <v>530</v>
@@ -21951,7 +21900,7 @@
         <v>59072316614</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A534" s="8">
         <f t="shared" si="8"/>
         <v>531</v>
@@ -21978,7 +21927,7 @@
         <v>17446468645</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A535" s="3">
         <f t="shared" si="8"/>
         <v>532</v>
@@ -22005,7 +21954,7 @@
         <v>61871250374</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A536" s="8">
         <f t="shared" si="8"/>
         <v>533</v>
@@ -22032,7 +21981,7 @@
         <v>20228003385</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537" s="3">
         <f t="shared" si="8"/>
         <v>534</v>
@@ -22059,7 +22008,7 @@
         <v>56707430165</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A538" s="8">
         <f t="shared" si="8"/>
         <v>535</v>
@@ -22086,7 +22035,7 @@
         <v>76021800702</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A539" s="3">
         <f t="shared" si="8"/>
         <v>536</v>
@@ -22113,7 +22062,7 @@
         <v>23833645687</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A540" s="8">
         <f t="shared" ref="A540:A603" si="9">A539+1</f>
         <v>537</v>
@@ -22140,7 +22089,7 @@
         <v>76375962307</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A541" s="3">
         <f t="shared" si="9"/>
         <v>538</v>
@@ -22167,7 +22116,7 @@
         <v>71768448361</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A542" s="8">
         <f t="shared" si="9"/>
         <v>539</v>
@@ -22194,7 +22143,7 @@
         <v>48102463708</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A543" s="3">
         <f t="shared" si="9"/>
         <v>540</v>
@@ -22221,7 +22170,7 @@
         <v>47480765770</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A544" s="8">
         <f t="shared" si="9"/>
         <v>541</v>
@@ -22248,7 +22197,7 @@
         <v>80767823508</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A545" s="3">
         <f t="shared" si="9"/>
         <v>542</v>
@@ -22275,7 +22224,7 @@
         <v>67400221272</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A546" s="8">
         <f t="shared" si="9"/>
         <v>543</v>
@@ -22302,7 +22251,7 @@
         <v>47532451445</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A547" s="3">
         <f t="shared" si="9"/>
         <v>544</v>
@@ -22329,7 +22278,7 @@
         <v>15882846463</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A548" s="8">
         <f t="shared" si="9"/>
         <v>545</v>
@@ -22356,7 +22305,7 @@
         <v>18763604612</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A549" s="3">
         <f t="shared" si="9"/>
         <v>546</v>
@@ -22383,7 +22332,7 @@
         <v>24528470462</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A550" s="8">
         <f t="shared" si="9"/>
         <v>547</v>
@@ -22410,7 +22359,7 @@
         <v>23455744109</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A551" s="3">
         <f t="shared" si="9"/>
         <v>548</v>
@@ -22437,7 +22386,7 @@
         <v>10531526801</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A552" s="8">
         <f t="shared" si="9"/>
         <v>549</v>
@@ -22464,7 +22413,7 @@
         <v>64114376100</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A553" s="3">
         <f t="shared" si="9"/>
         <v>550</v>
@@ -22491,7 +22440,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A554" s="8">
         <f t="shared" si="9"/>
         <v>551</v>
@@ -22518,7 +22467,7 @@
         <v>31340173182</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A555" s="3">
         <f t="shared" si="9"/>
         <v>552</v>
@@ -22545,7 +22494,7 @@
         <v>40785771212</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A556" s="8">
         <f t="shared" si="9"/>
         <v>553</v>
@@ -22572,7 +22521,7 @@
         <v>25833125456</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A557" s="3">
         <f t="shared" si="9"/>
         <v>554</v>
@@ -22599,7 +22548,7 @@
         <v>58342264262</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A558" s="8">
         <f t="shared" si="9"/>
         <v>555</v>
@@ -22626,7 +22575,7 @@
         <v>72484743637</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A559" s="3">
         <f t="shared" si="9"/>
         <v>556</v>
@@ -22653,7 +22602,7 @@
         <v>43465736141</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A560" s="8">
         <f t="shared" si="9"/>
         <v>557</v>
@@ -22680,7 +22629,7 @@
         <v>57403326563</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A561" s="3">
         <f t="shared" si="9"/>
         <v>558</v>
@@ -22707,7 +22656,7 @@
         <v>43058108591</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A562" s="8">
         <f t="shared" si="9"/>
         <v>559</v>
@@ -22734,7 +22683,7 @@
         <v>71824061609</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A563" s="3">
         <f t="shared" si="9"/>
         <v>560</v>
@@ -22761,7 +22710,7 @@
         <v>43138888100</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A564" s="8">
         <f t="shared" si="9"/>
         <v>561</v>
@@ -22788,7 +22737,7 @@
         <v>21764840704</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A565" s="3">
         <f t="shared" si="9"/>
         <v>562</v>
@@ -22815,7 +22764,7 @@
         <v>50485678110</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A566" s="8">
         <f t="shared" si="9"/>
         <v>563</v>
@@ -22842,7 +22791,7 @@
         <v>85038342272</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A567" s="3">
         <f t="shared" si="9"/>
         <v>564</v>
@@ -22869,7 +22818,7 @@
         <v>48050816354</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A568" s="8">
         <f t="shared" si="9"/>
         <v>565</v>
@@ -22896,7 +22845,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A569" s="3">
         <f t="shared" si="9"/>
         <v>566</v>
@@ -22923,7 +22872,7 @@
         <v>71860241816</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A570" s="8">
         <f t="shared" si="9"/>
         <v>567</v>
@@ -22950,7 +22899,7 @@
         <v>85287161123</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A571" s="3">
         <f t="shared" si="9"/>
         <v>568</v>
@@ -22977,7 +22926,7 @@
         <v>62500546853</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A572" s="8">
         <f t="shared" si="9"/>
         <v>569</v>
@@ -23004,7 +22953,7 @@
         <v>35937692209</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A573" s="3">
         <f t="shared" si="9"/>
         <v>570</v>
@@ -23031,7 +22980,7 @@
         <v>32808528116</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A574" s="8">
         <f t="shared" si="9"/>
         <v>571</v>
@@ -23058,7 +23007,7 @@
         <v>23310378250</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A575" s="3">
         <f t="shared" si="9"/>
         <v>572</v>
@@ -23085,7 +23034,7 @@
         <v>95132776310</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A576" s="8">
         <f t="shared" si="9"/>
         <v>573</v>
@@ -23112,7 +23061,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A577" s="3">
         <f t="shared" si="9"/>
         <v>574</v>
@@ -23139,7 +23088,7 @@
         <v>13223535497</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A578" s="8">
         <f t="shared" si="9"/>
         <v>575</v>
@@ -23166,7 +23115,7 @@
         <v>53372440196</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A579" s="3">
         <f t="shared" si="9"/>
         <v>576</v>
@@ -23193,7 +23142,7 @@
         <v>68026035003</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A580" s="8">
         <f t="shared" si="9"/>
         <v>577</v>
@@ -23220,7 +23169,7 @@
         <v>44564178202</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A581" s="3">
         <f t="shared" si="9"/>
         <v>578</v>
@@ -23247,7 +23196,7 @@
         <v>64410525557</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A582" s="8">
         <f t="shared" si="9"/>
         <v>579</v>
@@ -23274,7 +23223,7 @@
         <v>67574364001</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A583" s="3">
         <f t="shared" si="9"/>
         <v>580</v>
@@ -23301,7 +23250,7 @@
         <v>67362483457</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A584" s="8">
         <f t="shared" si="9"/>
         <v>581</v>
@@ -23328,7 +23277,7 @@
         <v>23587026769</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A585" s="3">
         <f t="shared" si="9"/>
         <v>582</v>
@@ -23355,7 +23304,7 @@
         <v>78325872101</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A586" s="8">
         <f t="shared" si="9"/>
         <v>583</v>
@@ -23382,7 +23331,7 @@
         <v>18523137300</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A587" s="3">
         <f t="shared" si="9"/>
         <v>584</v>
@@ -23409,7 +23358,7 @@
         <v>84416866615</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A588" s="8">
         <f t="shared" si="9"/>
         <v>585</v>
@@ -23436,7 +23385,7 @@
         <v>48424336712</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A589" s="3">
         <f t="shared" si="9"/>
         <v>586</v>
@@ -23463,7 +23412,7 @@
         <v>23034664079</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A590" s="8">
         <f t="shared" si="9"/>
         <v>587</v>
@@ -23490,7 +23439,7 @@
         <v>78505144759</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A591" s="3">
         <f t="shared" si="9"/>
         <v>588</v>
@@ -23517,7 +23466,7 @@
         <v>30284837261</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A592" s="8">
         <f t="shared" si="9"/>
         <v>589</v>
@@ -23544,7 +23493,7 @@
         <v>41622025326</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A593" s="3">
         <f t="shared" si="9"/>
         <v>590</v>
@@ -23571,7 +23520,7 @@
         <v>61768436770</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A594" s="8">
         <f t="shared" si="9"/>
         <v>591</v>
@@ -23598,7 +23547,7 @@
         <v>22103110552</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A595" s="3">
         <f t="shared" si="9"/>
         <v>592</v>
@@ -23625,7 +23574,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A596" s="8">
         <f t="shared" si="9"/>
         <v>593</v>
@@ -23652,7 +23601,7 @@
         <v>70616772521</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A597" s="3">
         <f t="shared" si="9"/>
         <v>594</v>
@@ -23679,7 +23628,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A598" s="8">
         <f t="shared" si="9"/>
         <v>595</v>
@@ -23706,7 +23655,7 @@
         <v>82421641349</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A599" s="3">
         <f t="shared" si="9"/>
         <v>596</v>
@@ -23733,7 +23682,7 @@
         <v>58065034535</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A600" s="8">
         <f t="shared" si="9"/>
         <v>597</v>
@@ -23760,7 +23709,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A601" s="3">
         <f t="shared" si="9"/>
         <v>598</v>
@@ -23787,7 +23736,7 @@
         <v>63310630722</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A602" s="8">
         <f t="shared" si="9"/>
         <v>599</v>
@@ -23814,7 +23763,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A603" s="3">
         <f t="shared" si="9"/>
         <v>600</v>
@@ -23841,7 +23790,7 @@
         <v>26274137084</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A604" s="8">
         <f t="shared" ref="A604:A667" si="10">A603+1</f>
         <v>601</v>
@@ -23868,7 +23817,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A605" s="3">
         <f t="shared" si="10"/>
         <v>602</v>
@@ -23895,7 +23844,7 @@
         <v>11468011570</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A606" s="8">
         <f t="shared" si="10"/>
         <v>603</v>
@@ -23922,7 +23871,7 @@
         <v>56712711770</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A607" s="3">
         <f t="shared" si="10"/>
         <v>604</v>
@@ -23949,7 +23898,7 @@
         <v>65001762782</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A608" s="8">
         <f t="shared" si="10"/>
         <v>605</v>
@@ -23976,7 +23925,7 @@
         <v>74463045614</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A609" s="3">
         <f t="shared" si="10"/>
         <v>606</v>
@@ -24003,7 +23952,7 @@
         <v>65211860004</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A610" s="8">
         <f t="shared" si="10"/>
         <v>607</v>
@@ -24030,7 +23979,7 @@
         <v>31116616874</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A611" s="3">
         <f t="shared" si="10"/>
         <v>608</v>
@@ -24057,7 +24006,7 @@
         <v>63838176472</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A612" s="8">
         <f t="shared" si="10"/>
         <v>609</v>
@@ -24084,7 +24033,7 @@
         <v>78124643695</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A613" s="3">
         <f t="shared" si="10"/>
         <v>610</v>
@@ -24111,7 +24060,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A614" s="8">
         <f t="shared" si="10"/>
         <v>611</v>
@@ -24138,7 +24087,7 @@
         <v>24691892761</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A615" s="3">
         <f t="shared" si="10"/>
         <v>612</v>
@@ -24165,7 +24114,7 @@
         <v>77303186522</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A616" s="8">
         <f t="shared" si="10"/>
         <v>613</v>
@@ -24192,7 +24141,7 @@
         <v>61815757078</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A617" s="3">
         <f t="shared" si="10"/>
         <v>614</v>
@@ -24219,7 +24168,7 @@
         <v>72383551325</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A618" s="8">
         <f t="shared" si="10"/>
         <v>615</v>
@@ -24246,7 +24195,7 @@
         <v>57123041399</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A619" s="3">
         <f t="shared" si="10"/>
         <v>616</v>
@@ -24273,7 +24222,7 @@
         <v>51085256561</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A620" s="8">
         <f t="shared" si="10"/>
         <v>617</v>
@@ -24300,7 +24249,7 @@
         <v>40428667007</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A621" s="3">
         <f t="shared" si="10"/>
         <v>618</v>
@@ -24327,7 +24276,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A622" s="8">
         <f t="shared" si="10"/>
         <v>619</v>
@@ -24354,7 +24303,7 @@
         <v>12847034528</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A623" s="3">
         <f t="shared" si="10"/>
         <v>620</v>
@@ -24381,7 +24330,7 @@
         <v>50082835705</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A624" s="8">
         <f t="shared" si="10"/>
         <v>621</v>
@@ -24408,7 +24357,7 @@
         <v>70350540063</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A625" s="3">
         <f t="shared" si="10"/>
         <v>622</v>
@@ -24435,7 +24384,7 @@
         <v>61742024530</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A626" s="8">
         <f t="shared" si="10"/>
         <v>623</v>
@@ -24462,7 +24411,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A627" s="3">
         <f t="shared" si="10"/>
         <v>624</v>
@@ -24489,7 +24438,7 @@
         <v>12688412345</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A628" s="8">
         <f t="shared" si="10"/>
         <v>625</v>
@@ -24516,7 +24465,7 @@
         <v>65342235464</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A629" s="3">
         <f t="shared" si="10"/>
         <v>626</v>
@@ -24543,7 +24492,7 @@
         <v>17655530408</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A630" s="8">
         <f t="shared" si="10"/>
         <v>627</v>
@@ -24570,7 +24519,7 @@
         <v>23324662311</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A631" s="3">
         <f t="shared" si="10"/>
         <v>628</v>
@@ -24597,7 +24546,7 @@
         <v>23557862240</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A632" s="8">
         <f t="shared" si="10"/>
         <v>629</v>
@@ -24624,7 +24573,7 @@
         <v>83715378832</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A633" s="3">
         <f t="shared" si="10"/>
         <v>630</v>
@@ -24651,7 +24600,7 @@
         <v>32763103502</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A634" s="8">
         <f t="shared" si="10"/>
         <v>631</v>
@@ -24678,7 +24627,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A635" s="3">
         <f t="shared" si="10"/>
         <v>632</v>
@@ -24705,7 +24654,7 @@
         <v>83331250341</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A636" s="8">
         <f t="shared" si="10"/>
         <v>633</v>
@@ -24732,7 +24681,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A637" s="3">
         <f t="shared" si="10"/>
         <v>634</v>
@@ -24759,7 +24708,7 @@
         <v>47802648718</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A638" s="8">
         <f t="shared" si="10"/>
         <v>635</v>
@@ -24786,7 +24735,7 @@
         <v>38187247177</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A639" s="3">
         <f t="shared" si="10"/>
         <v>636</v>
@@ -24813,7 +24762,7 @@
         <v>34263878833</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A640" s="8">
         <f t="shared" si="10"/>
         <v>637</v>
@@ -24840,7 +24789,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A641" s="3">
         <f t="shared" si="10"/>
         <v>638</v>
@@ -24867,7 +24816,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A642" s="8">
         <f t="shared" si="10"/>
         <v>639</v>
@@ -24894,7 +24843,7 @@
         <v>84217414706</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A643" s="3">
         <f t="shared" si="10"/>
         <v>640</v>
@@ -24921,7 +24870,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A644" s="8">
         <f t="shared" si="10"/>
         <v>641</v>
@@ -24948,7 +24897,7 @@
         <v>17145211335</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A645" s="3">
         <f t="shared" si="10"/>
         <v>642</v>
@@ -24975,7 +24924,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A646" s="8">
         <f t="shared" si="10"/>
         <v>643</v>
@@ -25002,7 +24951,7 @@
         <v>63651708071</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A647" s="3">
         <f t="shared" si="10"/>
         <v>644</v>
@@ -25029,7 +24978,7 @@
         <v>77330844586</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A648" s="8">
         <f t="shared" si="10"/>
         <v>645</v>
@@ -25056,7 +25005,7 @@
         <v>55483115570</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A649" s="3">
         <f t="shared" si="10"/>
         <v>646</v>
@@ -25083,7 +25032,7 @@
         <v>67715288390</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A650" s="8">
         <f t="shared" si="10"/>
         <v>647</v>
@@ -25110,7 +25059,7 @@
         <v>46024856857</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A651" s="3">
         <f t="shared" si="10"/>
         <v>648</v>
@@ -25137,7 +25086,7 @@
         <v>38164412899</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A652" s="8">
         <f t="shared" si="10"/>
         <v>649</v>
@@ -25164,7 +25113,7 @@
         <v>13240820200</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A653" s="3">
         <f t="shared" si="10"/>
         <v>650</v>
@@ -25191,7 +25140,7 @@
         <v>46161742101</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A654" s="8">
         <f t="shared" si="10"/>
         <v>651</v>
@@ -25218,7 +25167,7 @@
         <v>35708615036</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A655" s="3">
         <f t="shared" si="10"/>
         <v>652</v>
@@ -25245,7 +25194,7 @@
         <v>45236338190</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A656" s="8">
         <f t="shared" si="10"/>
         <v>653</v>
@@ -25272,7 +25221,7 @@
         <v>21824538570</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A657" s="3">
         <f t="shared" si="10"/>
         <v>654</v>
@@ -25299,7 +25248,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A658" s="8">
         <f t="shared" si="10"/>
         <v>655</v>
@@ -25326,7 +25275,7 @@
         <v>15610211646</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A659" s="3">
         <f t="shared" si="10"/>
         <v>656</v>
@@ -25353,7 +25302,7 @@
         <v>22523715015</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A660" s="8">
         <f t="shared" si="10"/>
         <v>657</v>
@@ -25380,7 +25329,7 @@
         <v>36001268304</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A661" s="3">
         <f t="shared" si="10"/>
         <v>658</v>
@@ -25407,7 +25356,7 @@
         <v>51062522370</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A662" s="8">
         <f t="shared" si="10"/>
         <v>659</v>
@@ -25434,7 +25383,7 @@
         <v>41204456747</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A663" s="3">
         <f t="shared" si="10"/>
         <v>660</v>
@@ -25461,7 +25410,7 @@
         <v>15481270781</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A664" s="8">
         <f t="shared" si="10"/>
         <v>661</v>
@@ -25488,7 +25437,7 @@
         <v>84221325321</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A665" s="3">
         <f t="shared" si="10"/>
         <v>662</v>
@@ -25515,7 +25464,7 @@
         <v>77583513014</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A666" s="8">
         <f t="shared" si="10"/>
         <v>663</v>
@@ -25542,7 +25491,7 @@
         <v>66426765058</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A667" s="3">
         <f t="shared" si="10"/>
         <v>664</v>
@@ -25569,7 +25518,7 @@
         <v>64721143230</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A668" s="8">
         <f t="shared" ref="A668:A731" si="11">A667+1</f>
         <v>665</v>
@@ -25596,7 +25545,7 @@
         <v>56572410536</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A669" s="3">
         <f t="shared" si="11"/>
         <v>666</v>
@@ -25623,7 +25572,7 @@
         <v>61645388077</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A670" s="8">
         <f t="shared" si="11"/>
         <v>667</v>
@@ -25650,7 +25599,7 @@
         <v>73658811781</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A671" s="3">
         <f t="shared" si="11"/>
         <v>668</v>
@@ -25677,7 +25626,7 @@
         <v>24120585638</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A672" s="8">
         <f t="shared" si="11"/>
         <v>669</v>
@@ -25704,7 +25653,7 @@
         <v>37484350028</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A673" s="3">
         <f t="shared" si="11"/>
         <v>670</v>
@@ -25731,7 +25680,7 @@
         <v>66652025698</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A674" s="8">
         <f t="shared" si="11"/>
         <v>671</v>
@@ -25758,7 +25707,7 @@
         <v>87867151869</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A675" s="3">
         <f t="shared" si="11"/>
         <v>672</v>
@@ -25785,7 +25734,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A676" s="8">
         <f t="shared" si="11"/>
         <v>673</v>
@@ -25812,7 +25761,7 @@
         <v>21507343540</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A677" s="3">
         <f t="shared" si="11"/>
         <v>674</v>
@@ -25839,7 +25788,7 @@
         <v>53000786546</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A678" s="8">
         <f t="shared" si="11"/>
         <v>675</v>
@@ -25866,7 +25815,7 @@
         <v>73656165122</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A679" s="3">
         <f t="shared" si="11"/>
         <v>676</v>
@@ -25893,7 +25842,7 @@
         <v>60820788619</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A680" s="8">
         <f t="shared" si="11"/>
         <v>677</v>
@@ -25920,7 +25869,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A681" s="3">
         <f t="shared" si="11"/>
         <v>678</v>
@@ -25947,7 +25896,7 @@
         <v>14553471329</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A682" s="8">
         <f t="shared" si="11"/>
         <v>679</v>
@@ -25974,7 +25923,7 @@
         <v>14428201010</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A683" s="3">
         <f t="shared" si="11"/>
         <v>680</v>
@@ -26001,7 +25950,7 @@
         <v>77827112749</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A684" s="8">
         <f t="shared" si="11"/>
         <v>681</v>
@@ -26028,7 +25977,7 @@
         <v>83383628086</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A685" s="3">
         <f t="shared" si="11"/>
         <v>682</v>
@@ -26055,7 +26004,7 @@
         <v>64875106025</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A686" s="8">
         <f t="shared" si="11"/>
         <v>683</v>
@@ -26082,7 +26031,7 @@
         <v>24832505300</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A687" s="3">
         <f t="shared" si="11"/>
         <v>684</v>
@@ -26109,7 +26058,7 @@
         <v>84371780105</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A688" s="8">
         <f t="shared" si="11"/>
         <v>685</v>
@@ -26136,7 +26085,7 @@
         <v>51737224607</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A689" s="3">
         <f t="shared" si="11"/>
         <v>686</v>
@@ -26163,7 +26112,7 @@
         <v>14387768703</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A690" s="8">
         <f t="shared" si="11"/>
         <v>687</v>
@@ -26190,7 +26139,7 @@
         <v>26156372407</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A691" s="3">
         <f t="shared" si="11"/>
         <v>688</v>
@@ -26217,7 +26166,7 @@
         <v>51345428057</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A692" s="8">
         <f t="shared" si="11"/>
         <v>689</v>
@@ -26244,7 +26193,7 @@
         <v>20481028595</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A693" s="3">
         <f t="shared" si="11"/>
         <v>690</v>
@@ -26271,7 +26220,7 @@
         <v>75447851572</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A694" s="8">
         <f t="shared" si="11"/>
         <v>691</v>
@@ -26298,7 +26247,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A695" s="3">
         <f t="shared" si="11"/>
         <v>692</v>
@@ -26325,7 +26274,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A696" s="8">
         <f t="shared" si="11"/>
         <v>693</v>
@@ -26352,7 +26301,7 @@
         <v>30885410211</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A697" s="3">
         <f t="shared" si="11"/>
         <v>694</v>
@@ -26379,7 +26328,7 @@
         <v>14142134175</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A698" s="8">
         <f t="shared" si="11"/>
         <v>695</v>
@@ -26406,7 +26355,7 @@
         <v>63867661308</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A699" s="3">
         <f t="shared" si="11"/>
         <v>696</v>
@@ -26433,7 +26382,7 @@
         <v>52855643015</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A700" s="8">
         <f t="shared" si="11"/>
         <v>697</v>
@@ -26460,7 +26409,7 @@
         <v>82881306314</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A701" s="3">
         <f t="shared" si="11"/>
         <v>698</v>
@@ -26487,7 +26436,7 @@
         <v>87718651444</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A702" s="8">
         <f t="shared" si="11"/>
         <v>699</v>
@@ -26514,7 +26463,7 @@
         <v>81036525473</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A703" s="3">
         <f t="shared" si="11"/>
         <v>700</v>
@@ -26541,7 +26490,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A704" s="8">
         <f t="shared" si="11"/>
         <v>701</v>
@@ -26568,7 +26517,7 @@
         <v>73112871707</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A705" s="3">
         <f t="shared" si="11"/>
         <v>702</v>
@@ -26595,7 +26544,7 @@
         <v>24662008050</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A706" s="8">
         <f t="shared" si="11"/>
         <v>703</v>
@@ -26622,7 +26571,7 @@
         <v>27854360081</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A707" s="3">
         <f t="shared" si="11"/>
         <v>704</v>
@@ -26649,7 +26598,7 @@
         <v>12625515287</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A708" s="8">
         <f t="shared" si="11"/>
         <v>705</v>
@@ -26676,7 +26625,7 @@
         <v>38664403325</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A709" s="3">
         <f t="shared" si="11"/>
         <v>706</v>
@@ -26703,7 +26652,7 @@
         <v>22132606218</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A710" s="8">
         <f t="shared" si="11"/>
         <v>707</v>
@@ -26730,7 +26679,7 @@
         <v>13022265506</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A711" s="3">
         <f t="shared" si="11"/>
         <v>708</v>
@@ -26757,7 +26706,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A712" s="8">
         <f t="shared" si="11"/>
         <v>709</v>
@@ -26784,7 +26733,7 @@
         <v>11343336686</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A713" s="3">
         <f t="shared" si="11"/>
         <v>710</v>
@@ -26811,7 +26760,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A714" s="8">
         <f t="shared" si="11"/>
         <v>711</v>
@@ -26838,7 +26787,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A715" s="3">
         <f t="shared" si="11"/>
         <v>712</v>
@@ -26865,7 +26814,7 @@
         <v>18100232547</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A716" s="8">
         <f t="shared" si="11"/>
         <v>713</v>
@@ -26892,7 +26841,7 @@
         <v>75026336779</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A717" s="3">
         <f t="shared" si="11"/>
         <v>714</v>
@@ -26919,7 +26868,7 @@
         <v>55485370594</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A718" s="8">
         <f t="shared" si="11"/>
         <v>715</v>
@@ -26946,7 +26895,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A719" s="3">
         <f t="shared" si="11"/>
         <v>716</v>
@@ -26973,7 +26922,7 @@
         <v>23761361726</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A720" s="8">
         <f t="shared" si="11"/>
         <v>717</v>
@@ -27000,7 +26949,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A721" s="3">
         <f t="shared" si="11"/>
         <v>718</v>
@@ -27027,7 +26976,7 @@
         <v>24354332558</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A722" s="8">
         <f t="shared" si="11"/>
         <v>719</v>
@@ -27054,7 +27003,7 @@
         <v>72525802888</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A723" s="3">
         <f t="shared" si="11"/>
         <v>720</v>
@@ -27081,7 +27030,7 @@
         <v>26005131753</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A724" s="8">
         <f t="shared" si="11"/>
         <v>721</v>
@@ -27108,7 +27057,7 @@
         <v>20352787082</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A725" s="3">
         <f t="shared" si="11"/>
         <v>722</v>
@@ -27135,7 +27084,7 @@
         <v>28156380614</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A726" s="8">
         <f t="shared" si="11"/>
         <v>723</v>
@@ -27162,7 +27111,7 @@
         <v>55313808877</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A727" s="3">
         <f t="shared" si="11"/>
         <v>724</v>
@@ -27189,7 +27138,7 @@
         <v>42825861847</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A728" s="8">
         <f t="shared" si="11"/>
         <v>725</v>
@@ -27216,7 +27165,7 @@
         <v>27710624294</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A729" s="3">
         <f t="shared" si="11"/>
         <v>726</v>
@@ -27243,7 +27192,7 @@
         <v>53210073147</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A730" s="8">
         <f t="shared" si="11"/>
         <v>727</v>
@@ -27270,7 +27219,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A731" s="3">
         <f t="shared" si="11"/>
         <v>728</v>
@@ -27297,7 +27246,7 @@
         <v>47427208145</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A732" s="8">
         <f t="shared" ref="A732:A795" si="12">A731+1</f>
         <v>729</v>
@@ -27324,7 +27273,7 @@
         <v>41565666500</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A733" s="3">
         <f t="shared" si="12"/>
         <v>730</v>
@@ -27351,7 +27300,7 @@
         <v>52863648705</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A734" s="8">
         <f t="shared" si="12"/>
         <v>731</v>
@@ -27378,7 +27327,7 @@
         <v>24095005017</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A735" s="3">
         <f t="shared" si="12"/>
         <v>732</v>
@@ -27405,7 +27354,7 @@
         <v>67272317612</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A736" s="8">
         <f t="shared" si="12"/>
         <v>733</v>
@@ -27432,7 +27381,7 @@
         <v>52117412505</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A737" s="3">
         <f t="shared" si="12"/>
         <v>734</v>
@@ -27459,7 +27408,7 @@
         <v>56410008767</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A738" s="8">
         <f t="shared" si="12"/>
         <v>735</v>
@@ -27486,7 +27435,7 @@
         <v>40776502590</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A739" s="3">
         <f t="shared" si="12"/>
         <v>736</v>
@@ -27513,7 +27462,7 @@
         <v>11185276076</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A740" s="8">
         <f t="shared" si="12"/>
         <v>737</v>
@@ -27540,7 +27489,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A741" s="3">
         <f t="shared" si="12"/>
         <v>738</v>
@@ -27567,7 +27516,7 @@
         <v>82246324742</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A742" s="8">
         <f t="shared" si="12"/>
         <v>739</v>
@@ -27594,7 +27543,7 @@
         <v>52182018557</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A743" s="3">
         <f t="shared" si="12"/>
         <v>740</v>
@@ -27621,7 +27570,7 @@
         <v>30783463235</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A744" s="8">
         <f t="shared" si="12"/>
         <v>741</v>
@@ -27648,7 +27597,7 @@
         <v>82148153714</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A745" s="3">
         <f t="shared" si="12"/>
         <v>742</v>
@@ -27675,7 +27624,7 @@
         <v>83168156302</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A746" s="8">
         <f t="shared" si="12"/>
         <v>743</v>
@@ -27702,7 +27651,7 @@
         <v>65206017566</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A747" s="3">
         <f t="shared" si="12"/>
         <v>744</v>
@@ -27729,7 +27678,7 @@
         <v>68637720609</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A748" s="8">
         <f t="shared" si="12"/>
         <v>745</v>
@@ -27756,7 +27705,7 @@
         <v>35822210082</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A749" s="3">
         <f t="shared" si="12"/>
         <v>746</v>
@@ -27783,7 +27732,7 @@
         <v>23667288832</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A750" s="8">
         <f t="shared" si="12"/>
         <v>747</v>
@@ -27810,7 +27759,7 @@
         <v>67424108689</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A751" s="3">
         <f t="shared" si="12"/>
         <v>748</v>
@@ -27837,7 +27786,7 @@
         <v>51723185264</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A752" s="8">
         <f t="shared" si="12"/>
         <v>749</v>
@@ -27864,7 +27813,7 @@
         <v>24006361254</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A753" s="3">
         <f t="shared" si="12"/>
         <v>750</v>
@@ -27891,7 +27840,7 @@
         <v>68833656217</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A754" s="8">
         <f t="shared" si="12"/>
         <v>751</v>
@@ -27918,7 +27867,7 @@
         <v>74840700176</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A755" s="3">
         <f t="shared" si="12"/>
         <v>752</v>
@@ -27945,7 +27894,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A756" s="8">
         <f t="shared" si="12"/>
         <v>753</v>
@@ -27972,7 +27921,7 @@
         <v>54351242639</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A757" s="3">
         <f t="shared" si="12"/>
         <v>754</v>
@@ -27999,7 +27948,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A758" s="8">
         <f t="shared" si="12"/>
         <v>755</v>
@@ -28026,7 +27975,7 @@
         <v>46166886802</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A759" s="3">
         <f t="shared" si="12"/>
         <v>756</v>
@@ -28053,7 +28002,7 @@
         <v>88613846769</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A760" s="8">
         <f t="shared" si="12"/>
         <v>757</v>
@@ -28080,7 +28029,7 @@
         <v>84109173272</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A761" s="3">
         <f t="shared" si="12"/>
         <v>758</v>
@@ -28107,7 +28056,7 @@
         <v>46851665158</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A762" s="8">
         <f t="shared" si="12"/>
         <v>759</v>
@@ -28134,7 +28083,7 @@
         <v>43810581860</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A763" s="3">
         <f t="shared" si="12"/>
         <v>760</v>
@@ -28161,7 +28110,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A764" s="8">
         <f t="shared" si="12"/>
         <v>761</v>
@@ -28188,7 +28137,7 @@
         <v>12446812023</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A765" s="3">
         <f t="shared" si="12"/>
         <v>762</v>
@@ -28215,7 +28164,7 @@
         <v>57472763799</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A766" s="8">
         <f t="shared" si="12"/>
         <v>763</v>
@@ -28242,7 +28191,7 @@
         <v>22808243294</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A767" s="3">
         <f t="shared" si="12"/>
         <v>764</v>
@@ -28269,7 +28218,7 @@
         <v>87310652100</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A768" s="8">
         <f t="shared" si="12"/>
         <v>765</v>
@@ -28296,7 +28245,7 @@
         <v>43420245432</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A769" s="3">
         <f t="shared" si="12"/>
         <v>766</v>
@@ -28323,7 +28272,7 @@
         <v>22574642570</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A770" s="8">
         <f t="shared" si="12"/>
         <v>767</v>
@@ -28350,7 +28299,7 @@
         <v>56673484209</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A771" s="3">
         <f t="shared" si="12"/>
         <v>768</v>
@@ -28377,7 +28326,7 @@
         <v>37450671425</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A772" s="8">
         <f t="shared" si="12"/>
         <v>769</v>
@@ -28404,7 +28353,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A773" s="3">
         <f t="shared" si="12"/>
         <v>770</v>
@@ -28431,7 +28380,7 @@
         <v>47573041454</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A774" s="8">
         <f t="shared" si="12"/>
         <v>771</v>
@@ -28458,7 +28407,7 @@
         <v>77602537378</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A775" s="3">
         <f t="shared" si="12"/>
         <v>772</v>
@@ -28485,7 +28434,7 @@
         <v>73403873587</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A776" s="8">
         <f t="shared" si="12"/>
         <v>773</v>
@@ -28512,7 +28461,7 @@
         <v>71704530881</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A777" s="3">
         <f t="shared" si="12"/>
         <v>774</v>
@@ -28539,7 +28488,7 @@
         <v>43761638647</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A778" s="8">
         <f t="shared" si="12"/>
         <v>775</v>
@@ -28566,7 +28515,7 @@
         <v>64267199353</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A779" s="3">
         <f t="shared" si="12"/>
         <v>776</v>
@@ -28593,7 +28542,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A780" s="8">
         <f t="shared" si="12"/>
         <v>777</v>
@@ -28620,7 +28569,7 @@
         <v>51435712609</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A781" s="3">
         <f t="shared" si="12"/>
         <v>778</v>
@@ -28647,7 +28596,7 @@
         <v>54321440009</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A782" s="8">
         <f t="shared" si="12"/>
         <v>779</v>
@@ -28674,7 +28623,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A783" s="3">
         <f t="shared" si="12"/>
         <v>780</v>
@@ -28701,7 +28650,7 @@
         <v>86502625118</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A784" s="8">
         <f t="shared" si="12"/>
         <v>781</v>
@@ -28728,7 +28677,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A785" s="3">
         <f t="shared" si="12"/>
         <v>782</v>
@@ -28755,7 +28704,7 @@
         <v>16515552815</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A786" s="8">
         <f t="shared" si="12"/>
         <v>783</v>
@@ -28782,7 +28731,7 @@
         <v>40306056054</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A787" s="3">
         <f t="shared" si="12"/>
         <v>784</v>
@@ -28809,7 +28758,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A788" s="8">
         <f t="shared" si="12"/>
         <v>785</v>
@@ -28836,7 +28785,7 @@
         <v>25207429094</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A789" s="3">
         <f t="shared" si="12"/>
         <v>786</v>
@@ -28863,7 +28812,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A790" s="8">
         <f t="shared" si="12"/>
         <v>787</v>
@@ -28890,7 +28839,7 @@
         <v>16197957957</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A791" s="3">
         <f t="shared" si="12"/>
         <v>788</v>
@@ -28917,7 +28866,7 @@
         <v>30427567858</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A792" s="8">
         <f t="shared" si="12"/>
         <v>789</v>
@@ -28944,7 +28893,7 @@
         <v>74652157738</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A793" s="3">
         <f t="shared" si="12"/>
         <v>790</v>
@@ -28971,7 +28920,7 @@
         <v>65612616660</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A794" s="8">
         <f t="shared" si="12"/>
         <v>791</v>
@@ -28998,7 +28947,7 @@
         <v>15672345506</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A795" s="3">
         <f t="shared" si="12"/>
         <v>792</v>
@@ -29025,7 +28974,7 @@
         <v>28754200202</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A796" s="8">
         <f t="shared" ref="A796:A803" si="13">A795+1</f>
         <v>793</v>
@@ -29052,7 +29001,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A797" s="3">
         <f t="shared" si="13"/>
         <v>794</v>
@@ -29079,7 +29028,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A798" s="8">
         <f t="shared" si="13"/>
         <v>795</v>
@@ -29106,7 +29055,7 @@
         <v>42204077402</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A799" s="3">
         <f t="shared" si="13"/>
         <v>796</v>
@@ -29133,7 +29082,7 @@
         <v>78577085856</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A800" s="8">
         <f t="shared" si="13"/>
         <v>797</v>
@@ -29160,7 +29109,7 @@
         <v>36675681850</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A801" s="3">
         <f t="shared" si="13"/>
         <v>798</v>
@@ -29187,7 +29136,7 @@
         <v>51525725084</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A802" s="8">
         <f t="shared" si="13"/>
         <v>799</v>
@@ -29214,7 +29163,7 @@
         <v>21856785319</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A803" s="3">
         <f t="shared" si="13"/>
         <v>800</v>
@@ -29241,7 +29190,7 @@
         <v>64855423025</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A804" s="8">
         <f t="shared" ref="A804:A825" si="14">A803+1</f>
         <v>801</v>
@@ -29268,7 +29217,7 @@
         <v>72165205646</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A805" s="3">
         <f t="shared" si="14"/>
         <v>802</v>
@@ -29295,7 +29244,7 @@
         <v>67268234872</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A806" s="8">
         <f t="shared" si="14"/>
         <v>803</v>
@@ -29322,7 +29271,7 @@
         <v>26247358601</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A807" s="3">
         <f t="shared" si="14"/>
         <v>804</v>
@@ -29349,7 +29298,7 @@
         <v>24716500233</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A808" s="8">
         <f t="shared" si="14"/>
         <v>805</v>
@@ -29376,7 +29325,7 @@
         <v>84511313520</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A809" s="3">
         <f t="shared" si="14"/>
         <v>806</v>
@@ -29403,7 +29352,7 @@
         <v>48758453083</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A810" s="8">
         <f t="shared" si="14"/>
         <v>807</v>
@@ -29430,7 +29379,7 @@
         <v>66630181751</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A811" s="3">
         <f t="shared" si="14"/>
         <v>808</v>
@@ -29457,7 +29406,7 @@
         <v>40558810020</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A812" s="8">
         <f t="shared" si="14"/>
         <v>809</v>
@@ -29484,7 +29433,7 @@
         <v>28473156080</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A813" s="3">
         <f t="shared" si="14"/>
         <v>810</v>
@@ -29511,7 +29460,7 @@
         <v>80266847617</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A814" s="8">
         <f t="shared" si="14"/>
         <v>811</v>
@@ -29538,7 +29487,7 @@
         <v>94439353681</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A815" s="3">
         <f t="shared" si="14"/>
         <v>812</v>
@@ -29565,7 +29514,7 @@
         <v>66456375517</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A816" s="8">
         <f t="shared" si="14"/>
         <v>813</v>
@@ -29592,7 +29541,7 @@
         <v>88065183727</v>
       </c>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A817" s="3">
         <f t="shared" si="14"/>
         <v>814</v>
@@ -29619,7 +29568,7 @@
         <v>85431001000</v>
       </c>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A818" s="8">
         <f t="shared" si="14"/>
         <v>815</v>
@@ -29646,7 +29595,7 @@
         <v>67412857681</v>
       </c>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A819" s="3">
         <f t="shared" si="14"/>
         <v>816</v>
@@ -29673,7 +29622,7 @@
         <v>65202810342</v>
       </c>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A820" s="8">
         <f t="shared" si="14"/>
         <v>817</v>
@@ -29700,7 +29649,7 @@
         <v>28675220138</v>
       </c>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A821" s="3">
         <f t="shared" si="14"/>
         <v>818</v>
@@ -29727,7 +29676,7 @@
         <v>20117856185</v>
       </c>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A822" s="8">
         <f t="shared" si="14"/>
         <v>819</v>
@@ -29754,7 +29703,7 @@
         <v>85797289911</v>
       </c>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A823" s="3">
         <f t="shared" si="14"/>
         <v>820</v>
@@ -29781,7 +29730,7 @@
         <v>86428166780</v>
       </c>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A824" s="8">
         <f t="shared" si="14"/>
         <v>821</v>
@@ -29814,7 +29763,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A825" s="5">
         <f t="shared" si="14"/>
         <v>822</v>
@@ -29841,38 +29790,9 @@
         <v>52755734566</v>
       </c>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A826">
-        <v>823</v>
-      </c>
-      <c r="B826" s="18" t="s">
-        <v>2354</v>
-      </c>
-      <c r="C826" s="18" t="s">
-        <v>2355</v>
-      </c>
-      <c r="D826" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E826" s="18">
-        <v>0</v>
-      </c>
-      <c r="F826" s="19">
-        <v>29840</v>
-      </c>
-      <c r="G826" s="20" t="s">
-        <v>2356</v>
-      </c>
-      <c r="H826" s="21">
-        <v>77657577778</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A3:J825" xr:uid="{E67A117B-7ACE-4A2F-BA89-B4FCE6208DD2}"/>
-  <hyperlinks>
-    <hyperlink ref="G826" r:id="rId1" xr:uid="{2A71189A-05FF-469C-A4E7-DAE11F7E1249}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>